--- a/test.xlsx
+++ b/test.xlsx
@@ -22,13 +22,13 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>concentrationO3</t>
+    <t>PM2.5</t>
   </si>
   <si>
-    <t>concentrationNO2</t>
+    <t>NO2</t>
   </si>
   <si>
-    <t>concentrationPM2.5</t>
+    <t>O3</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,13 +384,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
